--- a/Docs importantes/Experimento 1/distintosAlphaCriterio1.xlsx
+++ b/Docs importantes/Experimento 1/distintosAlphaCriterio1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Desktop\Universidad\Cuarto de carrera\Segundo cuatrimestre\Prácticas\Docs importantes\Experimento 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Desktop\Universidad\Cuarto de carrera\Segundo cuatrimestre\Prácticas investigación\Docs importantes\Experimento 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D7A615-7CF1-475A-B37A-F3A59BEDB196}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D59573-189B-40C8-B451-DFB0F1998634}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{14361BB8-E63B-4EA8-9BB6-8D1414B804FE}"/>
   </bookViews>
@@ -228,7 +228,7 @@
     <t>CV REF</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>Time(s)</t>
   </si>
 </sst>
 </file>
@@ -265,15 +265,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -281,24 +293,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,7 +646,7 @@
   <dimension ref="A2:AC33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,168 +697,169 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <f>AVERAGE(B10:B33)</f>
         <v>0.37129922469028481</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <f t="shared" ref="C3:H3" si="0">AVERAGE(C10:C33)</f>
         <v>0.25826710780615525</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <f t="shared" si="0"/>
         <v>0.36788705160565044</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <f t="shared" si="0"/>
         <v>10662.774928576384</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <f t="shared" si="0"/>
         <v>16.708333333333332</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <f t="shared" si="0"/>
         <v>0.98349267988766809</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <f t="shared" si="0"/>
         <v>482.83409769605186</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>163.05600000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <f>AVERAGE(I10:I33)</f>
         <v>0.67373537527393712</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <f t="shared" ref="C4:H4" si="1">AVERAGE(J10:J33)</f>
         <v>0.15404387407213291</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <f t="shared" si="1"/>
         <v>0.5311961672810549</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <f t="shared" si="1"/>
         <v>10667.805732641955</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <f t="shared" si="1"/>
         <v>16.458333333333332</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <f t="shared" si="1"/>
         <v>0.97973616891315574</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <f t="shared" si="1"/>
         <v>456.03633889286863</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>160.34899999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <f>AVERAGE(P10:P33)</f>
         <v>0.7956420304961368</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <f t="shared" ref="C5:H5" si="2">AVERAGE(Q10:Q33)</f>
         <v>8.3154906309352655E-2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <f t="shared" si="2"/>
         <v>0.71638485673832519</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <f t="shared" si="2"/>
         <v>8721.9628284853807</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <f t="shared" si="2"/>
         <v>19.333333333333332</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <f t="shared" si="2"/>
         <v>0.97856333054624545</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <f t="shared" si="2"/>
         <v>511.62487653526142</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>164.16399999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <f>AVERAGE(W10:W33)</f>
         <v>0.36610476465371306</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <f t="shared" ref="C6:H6" si="3">AVERAGE(X10:X33)</f>
         <v>0.25814504888343809</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <f t="shared" si="3"/>
         <v>0.29925364936248683</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <f t="shared" si="3"/>
         <v>13521.58006229772</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <f t="shared" si="3"/>
         <v>13.625</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="5">
         <f t="shared" si="3"/>
         <v>0.97912206792106227</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="5">
         <f t="shared" si="3"/>
         <v>477.21990732196338</v>
       </c>

--- a/Docs importantes/Experimento 1/distintosAlphaCriterio1.xlsx
+++ b/Docs importantes/Experimento 1/distintosAlphaCriterio1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Desktop\Universidad\Cuarto de carrera\Segundo cuatrimestre\Prácticas investigación\Docs importantes\Experimento 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Investigacion-maxima-diversidad\Docs importantes\Experimento 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D59573-189B-40C8-B451-DFB0F1998634}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2D396E-C016-483D-BD3B-1B5519272D0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{14361BB8-E63B-4EA8-9BB6-8D1414B804FE}"/>
+    <workbookView xWindow="28680" yWindow="-2850" windowWidth="24240" windowHeight="13140" xr2:uid="{14361BB8-E63B-4EA8-9BB6-8D1414B804FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -646,57 +646,57 @@
   <dimension ref="A2:AC33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="7" t="s">
         <v>63</v>
@@ -723,7 +723,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -759,7 +759,7 @@
         <v>163.05600000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -795,7 +795,7 @@
         <v>160.34899999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -831,7 +831,7 @@
         <v>164.16399999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -867,7 +867,7 @@
         <v>161.56299999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -956,7 +956,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>143.517584731966</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>94.206539889423098</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>303.274722358617</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>171.05270248817999</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>203.404781071717</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>195.47631703631399</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>532.69427887361201</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>107.36695815730501</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>106.295037677341</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>190.741559331433</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>196.531596150837</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>540.75727050856403</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>183.11207505469599</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>643.63617634996297</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>1044.8380205318499</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>160.3492057981</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>95.271614034716094</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>74.117522661335997</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>77.396842386252501</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>64.215501091829907</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>6270.8667982516899</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>16.590861893272599</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>13.868431375312401</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>

--- a/Docs importantes/Experimento 1/distintosAlphaCriterio1.xlsx
+++ b/Docs importantes/Experimento 1/distintosAlphaCriterio1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Investigacion-maxima-diversidad\Docs importantes\Experimento 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2D396E-C016-483D-BD3B-1B5519272D0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5FEB48-35E7-47B6-B347-FBCE2EA0FCDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2850" windowWidth="24240" windowHeight="13140" xr2:uid="{14361BB8-E63B-4EA8-9BB6-8D1414B804FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{14361BB8-E63B-4EA8-9BB6-8D1414B804FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>GRASPConstructive_Criterion1_Seed_13_SolCount_100_alpha_0.25</t>
   </si>
@@ -190,21 +190,6 @@
   </si>
   <si>
     <t>GKD-c_1_n500_m50.txt</t>
-  </si>
-  <si>
-    <t>MDG-a_9_n500_m50.txt</t>
-  </si>
-  <si>
-    <t>MDG-b_12_n500_m50.txt</t>
-  </si>
-  <si>
-    <t>SOM-a_18_n50_m15.txt</t>
-  </si>
-  <si>
-    <t>SOM-a_33_n125_m12.txt</t>
-  </si>
-  <si>
-    <t>SOM-b_2_n100_m20.txt</t>
   </si>
   <si>
     <t>IGD</t>
@@ -646,7 +631,7 @@
   <dimension ref="A2:AC33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,28 +684,28 @@
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -729,31 +714,31 @@
       </c>
       <c r="B3" s="3">
         <f>AVERAGE(B10:B33)</f>
-        <v>0.37129922469028481</v>
+        <v>0.42164112592457026</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:H3" si="0">AVERAGE(C10:C33)</f>
-        <v>0.25826710780615525</v>
+        <v>0.29053315835867638</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
-        <v>0.36788705160565044</v>
+        <v>0.34841270450405509</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" si="0"/>
-        <v>10662.774928576384</v>
+        <v>5912.9815873103826</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" si="0"/>
-        <v>16.708333333333332</v>
+        <v>17.315789473684209</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
-        <v>0.98349267988766809</v>
+        <v>0.98203304045702922</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" si="0"/>
-        <v>482.83409769605186</v>
+        <v>271.87278712940787</v>
       </c>
       <c r="I3" s="4">
         <v>163.05600000000001</v>
@@ -765,31 +750,31 @@
       </c>
       <c r="B4" s="3">
         <f>AVERAGE(I10:I33)</f>
-        <v>0.67373537527393712</v>
+        <v>0.6382912795386313</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:H4" si="1">AVERAGE(J10:J33)</f>
-        <v>0.15404387407213291</v>
+        <v>0.1937688625076438</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="1"/>
-        <v>0.5311961672810549</v>
+        <v>0.44980446595821005</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="1"/>
-        <v>10667.805732641955</v>
+        <v>5641.832255208089</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="1"/>
-        <v>16.458333333333332</v>
+        <v>16.684210526315791</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="1"/>
-        <v>0.97973616891315574</v>
+        <v>0.97829072042745191</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="1"/>
-        <v>456.03633889286863</v>
+        <v>278.67083898093682</v>
       </c>
       <c r="I4" s="4">
         <v>160.34899999999999</v>
@@ -801,31 +786,31 @@
       </c>
       <c r="B5" s="3">
         <f>AVERAGE(P10:P33)</f>
-        <v>0.7956420304961368</v>
+        <v>0.78480160760543649</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:H5" si="2">AVERAGE(Q10:Q33)</f>
-        <v>8.3154906309352655E-2</v>
+        <v>0.10492186858471964</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>0.71638485673832519</v>
+        <v>0.65545003533388402</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="2"/>
-        <v>8721.9628284853807</v>
+        <v>4654.8524124047617</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="2"/>
-        <v>19.333333333333332</v>
+        <v>20.421052631578949</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="2"/>
-        <v>0.97856333054624545</v>
+        <v>0.97808743289555378</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="2"/>
-        <v>511.62487653526142</v>
+        <v>318.91914588247749</v>
       </c>
       <c r="I5" s="4">
         <v>164.16399999999999</v>
@@ -837,31 +822,31 @@
       </c>
       <c r="B6" s="5">
         <f>AVERAGE(W10:W33)</f>
-        <v>0.36610476465371306</v>
+        <v>0.34753517294684794</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" ref="C6:H6" si="3">AVERAGE(X10:X33)</f>
-        <v>0.25814504888343809</v>
+        <v>0.3048193108962538</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="3"/>
-        <v>0.29925364936248683</v>
+        <v>0.27050562050892191</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="3"/>
-        <v>13521.58006229772</v>
+        <v>8164.7312451759353</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="3"/>
-        <v>13.625</v>
+        <v>14.368421052631579</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="3"/>
-        <v>0.97912206792106227</v>
+        <v>0.97677623225055454</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="3"/>
-        <v>477.21990732196338</v>
+        <v>266.52846342590652</v>
       </c>
       <c r="I6" s="6">
         <v>161.56299999999999</v>
@@ -2648,449 +2633,154 @@
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2.1703929343309801E-2</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.50704225352112597</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1377.13270490899</v>
-      </c>
-      <c r="F29" s="1">
-        <v>25</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.99710278809649699</v>
-      </c>
-      <c r="H29" s="1">
-        <v>60.237728005605497</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.90322580645161199</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1.69661590693424E-3</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0.84507042253521103</v>
-      </c>
-      <c r="L29" s="1">
-        <v>1163.0233870022801</v>
-      </c>
-      <c r="M29" s="1">
-        <v>31</v>
-      </c>
-      <c r="N29" s="1">
-        <v>0.98817836189245001</v>
-      </c>
-      <c r="O29" s="1">
-        <v>50.873631514925101</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0.90322580645161199</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>2.7485370271352201E-4</v>
-      </c>
-      <c r="R29" s="1">
-        <v>0.84507042253521103</v>
-      </c>
-      <c r="S29" s="1">
-        <v>1130.8683394432301</v>
-      </c>
-      <c r="T29" s="1">
-        <v>31</v>
-      </c>
-      <c r="U29" s="1">
-        <v>0.99075550620457997</v>
-      </c>
-      <c r="V29" s="1">
-        <v>62.155592156312402</v>
-      </c>
-      <c r="W29" s="1">
-        <v>9.0909090909090898E-2</v>
-      </c>
-      <c r="X29" s="1">
-        <v>3.3988261611494798E-2</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>0.31823743630219098</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>2110.8217795578498</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>11</v>
-      </c>
-      <c r="AB29" s="1">
-        <v>0.99381579018067601</v>
-      </c>
-      <c r="AC29" s="1">
-        <v>64.215501091829907</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2.4375106567855999E-2</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.41256602724492603</v>
-      </c>
-      <c r="E30" s="1">
-        <v>141417.578406885</v>
-      </c>
-      <c r="F30" s="1">
-        <v>24</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.99909992495353095</v>
-      </c>
-      <c r="H30" s="1">
-        <v>6310.9761951984301</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="J30" s="1">
-        <v>2.6876059757984499E-3</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0.87823185988323604</v>
-      </c>
-      <c r="L30" s="1">
-        <v>146947.79355446101</v>
-      </c>
-      <c r="M30" s="1">
-        <v>20</v>
-      </c>
-      <c r="N30" s="1">
-        <v>0.99288234608171699</v>
-      </c>
-      <c r="O30" s="1">
-        <v>5544.1860791406798</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0.96428571428571397</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>4.0392725075404898E-5</v>
-      </c>
-      <c r="R30" s="1">
-        <v>0.94223451545984305</v>
-      </c>
-      <c r="S30" s="1">
-        <v>118812.088731663</v>
-      </c>
-      <c r="T30" s="1">
-        <v>28</v>
-      </c>
-      <c r="U30" s="1">
-        <v>0.992411438827287</v>
-      </c>
-      <c r="V30" s="1">
-        <v>6106.1522138252703</v>
-      </c>
-      <c r="W30" s="1">
-        <v>0.23529411764705799</v>
-      </c>
-      <c r="X30" s="1">
-        <v>2.3794092589950001E-2</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>0.25576869613566799</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>166537.04561542199</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>17</v>
-      </c>
-      <c r="AB30" s="1">
-        <v>0.99588472567754405</v>
-      </c>
-      <c r="AC30" s="1">
-        <v>6270.8667982516899</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.16380952380952299</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E31" s="1">
-        <v>241.96364188710001</v>
-      </c>
-      <c r="F31" s="1">
-        <v>6</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.98682660629010499</v>
-      </c>
-      <c r="H31" s="1">
-        <v>16.590861893272599</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0.95714285714285696</v>
-      </c>
-      <c r="L31" s="1">
-        <v>149.89885142567499</v>
-      </c>
-      <c r="M31" s="1">
-        <v>13</v>
-      </c>
-      <c r="N31" s="1">
-        <v>0.98119036405846705</v>
-      </c>
-      <c r="O31" s="1">
-        <v>17.656017777475</v>
-      </c>
-      <c r="P31" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>0</v>
-      </c>
-      <c r="R31" s="1">
-        <v>1</v>
-      </c>
-      <c r="S31" s="1">
-        <v>268.54678304642999</v>
-      </c>
-      <c r="T31" s="1">
-        <v>4</v>
-      </c>
-      <c r="U31" s="1">
-        <v>0.96255049193756204</v>
-      </c>
-      <c r="V31" s="1">
-        <v>16.590861893272599</v>
-      </c>
-      <c r="W31" s="1">
-        <v>0.85714285714285698</v>
-      </c>
-      <c r="X31" s="1">
-        <v>1.2698412698412701E-3</v>
-      </c>
-      <c r="Y31" s="1">
-        <v>0.81428571428571395</v>
-      </c>
-      <c r="Z31" s="1">
-        <v>152.40347425940899</v>
-      </c>
-      <c r="AA31" s="1">
-        <v>14</v>
-      </c>
-      <c r="AB31" s="1">
-        <v>0.98490290607527697</v>
-      </c>
-      <c r="AC31" s="1">
-        <v>16.590861893272599</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.41930618401206599</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.23529411764705799</v>
-      </c>
-      <c r="E32" s="1">
-        <v>142.79791640189799</v>
-      </c>
-      <c r="F32" s="1">
-        <v>9</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.98062105644860598</v>
-      </c>
-      <c r="H32" s="1">
-        <v>12.8884160798765</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0.85714285714285698</v>
-      </c>
-      <c r="L32" s="1">
-        <v>123.39207730249301</v>
-      </c>
-      <c r="M32" s="1">
-        <v>9</v>
-      </c>
-      <c r="N32" s="1">
-        <v>0.97333833755652299</v>
-      </c>
-      <c r="O32" s="1">
-        <v>13.715086335174099</v>
-      </c>
-      <c r="P32" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>0</v>
-      </c>
-      <c r="R32" s="1">
-        <v>1</v>
-      </c>
-      <c r="S32" s="1">
-        <v>112.150661214465</v>
-      </c>
-      <c r="T32" s="1">
-        <v>10</v>
-      </c>
-      <c r="U32" s="1">
-        <v>0.97416830832234202</v>
-      </c>
-      <c r="V32" s="1">
-        <v>10.939219181555501</v>
-      </c>
-      <c r="W32" s="1">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="X32" s="1">
-        <v>0.292366946778711</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>0.41176470588235198</v>
-      </c>
-      <c r="Z32" s="1">
-        <v>164.50317488727299</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB32" s="1">
-        <v>0.99517961989669801</v>
-      </c>
-      <c r="AC32" s="1">
-        <v>13.868431375312401</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C33" s="1">
-        <v>4.9085834800120499E-2</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.45454545454545398</v>
-      </c>
-      <c r="E33" s="1">
-        <v>380.47545685295</v>
-      </c>
-      <c r="F33" s="1">
-        <v>8</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.98154617283174195</v>
-      </c>
-      <c r="H33" s="1">
-        <v>21.742188069311201</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1.10603682032253E-2</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0.66483516483516403</v>
-      </c>
-      <c r="L33" s="1">
-        <v>448.41686426175397</v>
-      </c>
-      <c r="M33" s="1">
-        <v>5</v>
-      </c>
-      <c r="N33" s="1">
-        <v>0.99055495620499101</v>
-      </c>
-      <c r="O33" s="1">
-        <v>23.695378022793001</v>
-      </c>
-      <c r="P33" s="1">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>1.8870018870018801E-3</v>
-      </c>
-      <c r="R33" s="1">
-        <v>0.952380952380952</v>
-      </c>
-      <c r="S33" s="1">
-        <v>561.25753259151804</v>
-      </c>
-      <c r="T33" s="1">
-        <v>3</v>
-      </c>
-      <c r="U33" s="1">
-        <v>0.98197296280260005</v>
-      </c>
-      <c r="V33" s="1">
-        <v>23.695378022793001</v>
-      </c>
-      <c r="W33" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="X33" s="1">
-        <v>5.2495123923695299E-2</v>
-      </c>
-      <c r="Y33" s="1">
-        <v>0.24242424242424199</v>
-      </c>
-      <c r="Z33" s="1">
-        <v>423.25379267600601</v>
-      </c>
-      <c r="AA33" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB33" s="1">
-        <v>0.97039817551475904</v>
-      </c>
-      <c r="AC33" s="1">
-        <v>23.695378022793001</v>
-      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
